--- a/6_publication/1_toPSAil/1_plots/8.0_css_comparisons/kayser_flow_event.xlsx
+++ b/6_publication/1_toPSAil/1_plots/8.0_css_comparisons/kayser_flow_event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\6_publication\1_toPSAil\1_plots\8.0_css_comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF111572-269D-493F-BBF3-8EE652E3DE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5CCEC8-047A-45FA-B0F3-3A5EFD41AAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4D658C7E-A61A-4136-8743-3329CB1EDB16}"/>
   </bookViews>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB224C2-E114-4D3B-B787-55125E716FA5}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>1.30946032491679E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -424,8 +424,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <f>B2/10</f>
-        <v>0.1</v>
+        <v>1.1538744957234099E-5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -433,8 +432,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B16" si="0">B3/10</f>
-        <v>0.01</v>
+        <v>7.5039162349632205E-8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -442,63 +440,26 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>2.7127485839104799E-9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>1E-4</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000001E-5</v>
-      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000002E-6</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000002E-7</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000002E-8</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000003E-9</v>
-      </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
@@ -538,24 +499,6 @@
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
